--- a/MWS/Application/VariousDocumentOut/Doc/Excel/4-光ディスク請求届出.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/4-光ディスク請求届出.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59939EDC-0B25-4F21-BF25-2765D016ABB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD8926F-295A-4217-9BA5-09ACD2BE6061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="光ディスク請求届出" sheetId="21" r:id="rId1"/>
@@ -847,35 +847,131 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,6 +982,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,51 +1018,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,82 +1033,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1085,39 +1118,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,7 +1168,7 @@
                   <a14:compatExt spid="_x0000_s20481"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1225,7 +1225,7 @@
         <xdr:cNvPr id="3" name="宛先１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,7 +1289,7 @@
         <xdr:cNvPr id="4" name="住所１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1352,7 @@
         <xdr:cNvPr id="5" name="院長名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,7 +1415,7 @@
         <xdr:cNvPr id="6" name="医療機関コード１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
         <xdr:cNvPr id="7" name="医療機関コード７">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1537,7 @@
         <xdr:cNvPr id="8" name="医療機関コード６">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1598,7 @@
         <xdr:cNvPr id="9" name="医療機関コード５">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1659,7 @@
         <xdr:cNvPr id="10" name="医療機関コード４">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1720,7 @@
         <xdr:cNvPr id="11" name="医療機関コード３">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1781,7 @@
         <xdr:cNvPr id="12" name="医療機関コード２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1842,7 @@
         <xdr:cNvPr id="13" name="顧客名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1898,7 @@
         <xdr:cNvPr id="14" name="住所">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1961,7 @@
         <xdr:cNvPr id="15" name="システム名称">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2022,7 @@
         <xdr:cNvPr id="16" name="メーカー名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +2085,7 @@
         <xdr:cNvPr id="17" name="電話番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2149,7 @@
         <xdr:cNvPr id="18" name="郵便番号１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2210,7 @@
         <xdr:cNvPr id="19" name="郵便番号７">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2271,7 @@
         <xdr:cNvPr id="20" name="郵便番号６">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2332,7 @@
         <xdr:cNvPr id="21" name="郵便番号５">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2393,7 @@
         <xdr:cNvPr id="22" name="郵便番号４">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2454,7 @@
         <xdr:cNvPr id="23" name="郵便番号３">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2515,7 @@
         <xdr:cNvPr id="24" name="郵便番号２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +2576,7 @@
         <xdr:cNvPr id="25" name="宛先２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2640,7 @@
         <xdr:cNvPr id="26" name="住所２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2703,7 +2703,7 @@
         <xdr:cNvPr id="27" name="直線コネクタ 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2768,7 @@
                   <a14:compatExt spid="_x0000_s21505"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001540000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001540000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2825,7 +2825,7 @@
         <xdr:cNvPr id="3" name="円/楕円 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2891,7 +2891,7 @@
         <xdr:cNvPr id="4" name="円/楕円 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2957,7 @@
         <xdr:cNvPr id="5" name="院長名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3020,7 +3020,7 @@
         <xdr:cNvPr id="6" name="宛先１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3084,7 +3084,7 @@
         <xdr:cNvPr id="7" name="宛先２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3148,7 +3148,7 @@
         <xdr:cNvPr id="9" name="医療機関コード６">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3209,7 +3209,7 @@
         <xdr:cNvPr id="10" name="医療機関コード５">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,7 +3270,7 @@
         <xdr:cNvPr id="11" name="医療機関コード４">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3331,7 +3331,7 @@
         <xdr:cNvPr id="12" name="医療機関コード３">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3392,7 @@
         <xdr:cNvPr id="13" name="医療機関コード２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3453,7 +3453,7 @@
         <xdr:cNvPr id="14" name="医療機関コード１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3514,7 @@
         <xdr:cNvPr id="15" name="医療機関コード７">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3575,7 +3575,7 @@
         <xdr:cNvPr id="16" name="電話番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3639,7 +3639,7 @@
         <xdr:cNvPr id="17" name="顧客名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3700,7 +3700,7 @@
         <xdr:cNvPr id="18" name="住所">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3761,7 +3761,7 @@
         <xdr:cNvPr id="19" name="システム名称">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3822,7 +3822,7 @@
         <xdr:cNvPr id="20" name="メーカー名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3885,7 +3885,7 @@
         <xdr:cNvPr id="21" name="住所１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3948,7 +3948,7 @@
         <xdr:cNvPr id="22" name="住所２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4011,7 +4011,7 @@
         <xdr:cNvPr id="23" name="郵便番号１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4072,7 +4072,7 @@
         <xdr:cNvPr id="24" name="郵便番号７">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4133,7 +4133,7 @@
         <xdr:cNvPr id="25" name="郵便番号６">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4194,7 +4194,7 @@
         <xdr:cNvPr id="26" name="郵便番号５">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4255,7 +4255,7 @@
         <xdr:cNvPr id="27" name="郵便番号４">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4316,7 +4316,7 @@
         <xdr:cNvPr id="28" name="郵便番号３">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4377,7 +4377,7 @@
         <xdr:cNvPr id="29" name="郵便番号２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4438,7 +4438,7 @@
         <xdr:cNvPr id="31" name="図 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4477,7 +4477,7 @@
         <xdr:cNvPr id="30" name="御中">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6347,1025 +6347,993 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2" t="s">
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="63"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="26"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="53" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="55"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="26"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="56" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="58"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="28"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="55"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="47" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="2" t="s">
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2" t="s">
+      <c r="T21" s="9"/>
+      <c r="U21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="2" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2" t="s">
+      <c r="T23" s="9"/>
+      <c r="U23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="12" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="12" t="s">
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="14"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="46"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="20"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="49"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="44" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="2">
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="9">
         <v>4</v>
       </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
     </row>
     <row r="30" spans="2:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="12" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="14"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="46"/>
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="20"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="49"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="14"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="46"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="17"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="58"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="20"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="49"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
     </row>
     <row r="37" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="26"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="7"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="33" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="17"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="58"/>
     </row>
     <row r="40" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="20"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="49"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="61"/>
+      <c r="V41" s="61"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="61"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="61"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="63"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M46" s="34" t="s">
+      <c r="M46" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
     </row>
     <row r="49" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:Z16"/>
-    <mergeCell ref="B10:Z11"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="B15:Z15"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:Z17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:Z18"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:Z20"/>
-    <mergeCell ref="B21:D24"/>
-    <mergeCell ref="E21:R24"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="U21:Z22"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="U23:Z24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="N25:P26"/>
-    <mergeCell ref="Q25:Z26"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:M28"/>
-    <mergeCell ref="N27:P28"/>
-    <mergeCell ref="Q27:Z28"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:Z37"/>
-    <mergeCell ref="B30:Z30"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E31:Z32"/>
     <mergeCell ref="M47:Q49"/>
     <mergeCell ref="R47:T49"/>
     <mergeCell ref="U47:W49"/>
@@ -7382,6 +7350,38 @@
     <mergeCell ref="X46:Z46"/>
     <mergeCell ref="B41:Z41"/>
     <mergeCell ref="B42:Z43"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:Z37"/>
+    <mergeCell ref="B30:Z30"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E31:Z32"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="N25:P26"/>
+    <mergeCell ref="Q25:Z26"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:M28"/>
+    <mergeCell ref="N27:P28"/>
+    <mergeCell ref="Q27:Z28"/>
+    <mergeCell ref="B21:D24"/>
+    <mergeCell ref="E21:R24"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="U21:Z22"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="U23:Z24"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:Z17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:Z18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:Z20"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:Z16"/>
+    <mergeCell ref="B10:Z11"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="B14:Z14"/>
+    <mergeCell ref="B15:Z15"/>
+    <mergeCell ref="R13:V13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7406,74 +7406,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
     </row>
     <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -7530,639 +7530,627 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="2:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
     </row>
     <row r="18" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2" t="s">
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
     </row>
     <row r="19" spans="2:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="63"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="14"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="76" t="s">
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="78"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="89"/>
     </row>
     <row r="22" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="55"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="19"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="76" t="s">
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="77"/>
-      <c r="Z23" s="78"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="89"/>
     </row>
     <row r="24" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="58"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="28"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="55"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="19"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="76" t="s">
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="78"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="89"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="58"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="28"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="55"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="19"/>
     </row>
     <row r="29" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
     </row>
     <row r="30" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="14"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="46"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="17"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="58"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="17"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="58"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="88"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="20"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="49"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="92" t="s">
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
     </row>
     <row r="50" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M50" s="34" t="s">
+      <c r="M50" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
     </row>
     <row r="51" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
     </row>
     <row r="52" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
     </row>
     <row r="53" spans="13:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B30:D33"/>
-    <mergeCell ref="B34:D37"/>
-    <mergeCell ref="E34:Z37"/>
-    <mergeCell ref="M51:Q53"/>
-    <mergeCell ref="R51:T53"/>
-    <mergeCell ref="U51:W53"/>
-    <mergeCell ref="X51:Z53"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E30:Z33"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="B29:Z29"/>
     <mergeCell ref="B12:Z13"/>
@@ -8176,6 +8164,18 @@
     <mergeCell ref="B26:D28"/>
     <mergeCell ref="E26:Z28"/>
     <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="B30:D33"/>
+    <mergeCell ref="B34:D37"/>
+    <mergeCell ref="E34:Z37"/>
+    <mergeCell ref="M51:Q53"/>
+    <mergeCell ref="R51:T53"/>
+    <mergeCell ref="U51:W53"/>
+    <mergeCell ref="X51:Z53"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E30:Z33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
